--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3924.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3924.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.503838680554083</v>
+        <v>1.110642194747925</v>
       </c>
       <c r="B1">
-        <v>2.422210653709105</v>
+        <v>1.21656858921051</v>
       </c>
       <c r="C1">
-        <v>6.297803812011369</v>
+        <v>1.780166864395142</v>
       </c>
       <c r="D1">
-        <v>3.913302403202773</v>
+        <v>2.012913465499878</v>
       </c>
       <c r="E1">
-        <v>1.019020896298361</v>
+        <v>0.8387122750282288</v>
       </c>
     </row>
   </sheetData>
